--- a/Day 9/Algorithm Selection criteria.xlsx
+++ b/Day 9/Algorithm Selection criteria.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10335" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Predictor Type</t>
   </si>
@@ -56,13 +56,16 @@
     <t>Tuning Hyper-Parameters</t>
   </si>
   <si>
+    <t xml:space="preserve">example </t>
+  </si>
+  <si>
     <t>K-NN</t>
   </si>
   <si>
     <t>KNeigborsClassifier</t>
   </si>
   <si>
-    <t>n_neigbors</t>
+    <t>n_neighbors</t>
   </si>
   <si>
     <t>KNeigborsRegressor</t>
@@ -105,6 +108,105 @@
   </si>
   <si>
     <t>pipe, param_grid, scoring = 'r2', cv=kfold</t>
+  </si>
+  <si>
+    <t>Polynomial Reg</t>
+  </si>
+  <si>
+    <t>PolynomialFeatures</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>poly = PolynomialFeatures(degree = 2)</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier</t>
+  </si>
+  <si>
+    <t>max_depth, min_samples_split, min_samples_leaf</t>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>kernel, probabilty,random_state</t>
+  </si>
+  <si>
+    <t>kernel = ‘linear’, ‘poly’, ‘rbf’</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>GradientBoostingClassifier</t>
+  </si>
+  <si>
+    <t>n_estimators, max_depth, learning_rate</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>random_state, max_features</t>
+  </si>
+  <si>
+    <t>Voting</t>
+  </si>
+  <si>
+    <t>VotingClassifier</t>
+  </si>
+  <si>
+    <t>voting = soft, hard</t>
+  </si>
+  <si>
+    <t>Stacking Classifier</t>
+  </si>
+  <si>
+    <t>StackingClassifier</t>
+  </si>
+  <si>
+    <t>Stacking Regressor</t>
+  </si>
+  <si>
+    <t>StackingRegressor</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>LinearDiscriminantAnalysis</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>PCA()</t>
+  </si>
+  <si>
+    <t>n_components</t>
+  </si>
+  <si>
+    <t>Stochastic Gradient Classifier</t>
+  </si>
+  <si>
+    <t>SGDClassifier</t>
+  </si>
+  <si>
+    <t>Multi Layer Perceptron</t>
+  </si>
+  <si>
+    <t>MLPClassifier</t>
   </si>
 </sst>
 </file>
@@ -112,12 +214,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +228,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,10 +236,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,6 +294,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -170,13 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -185,8 +317,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +364,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -216,6 +387,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -223,66 +401,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -299,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +666,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -558,30 +691,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,160 +714,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1113,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1809523809524" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1125,68 +1254,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="30" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1200,127 +1329,293 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="20.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="50.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="38.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
